--- a/resources/import/sold_policies_report.xlsx
+++ b/resources/import/sold_policies_report.xlsx
@@ -67,17 +67,56 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border/>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="2" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="3" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -307,28 +346,28 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1"/>
+      <c r="I1" s="4"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
